--- a/Savage Worlds/Macro-Generation.xlsx
+++ b/Savage Worlds/Macro-Generation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17615"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traits" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,18 @@
   <commentList>
     <comment ref="A11" authorId="0" shapeId="0" xr:uid="{7DC77F67-9C02-433C-AB36-1DF4B11B864D}">
       <text>
-        <t>Siehe Global-Vollautomatisch-*.txt in Git Repository.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Siehe Global-Vollautomatisch-*.txt in Git Repository.
+Das Macro wurde in ein Attribut ausgelagert, da HTML kodierte Zeichen beim öffnen des Macros verloren gehen.
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -32,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>Skill</t>
   </si>
@@ -270,68 +281,87 @@
     <t>Sprinten</t>
   </si>
   <si>
-    <t>/em nimmt die Füße in die Hand
+    <t>**@{selected|token_name}** nimmt die Füße in die Hand
 /r @{Bewegungsweite} [Bewegungsweite] - @{Wunden} [Wunden] + @{Sprint-Würfel} [Sprinten]
 in Zoll (1 Zoll = 3 Fuß/2 Meter)</t>
   </si>
   <si>
-    <t>Fähigkeit</t>
-  </si>
-  <si>
-    <t>@{selected|token_name} würfelt für eine Wild Card-Fähigkeit
-/r {1d?{Fähigkeitswert|6}! [Fähigkeit]@{selected|WildDie} [Wild Die]}k1 - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</t>
-  </si>
-  <si>
-    <t>Ungeübt</t>
-  </si>
-  <si>
-    <t>@{selected|token_name} macht einen ungeübten Versuch
-/r {1d4! [Fähigkeit]@{selected|WildDie} [Wild Die]}k1 - 2 [Ungeübt] - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</t>
-  </si>
-  <si>
-    <t>Explodieren</t>
-  </si>
-  <si>
-    <t>@{selected|token_name} lässt die Würfel explodieren
-/r ?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}!+(?{Modifikator|0})</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>@{selected|token_name} würfelt ganz normal
-/r ?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}+(?{Modifikator|0})</t>
-  </si>
-  <si>
-    <t>Speziell</t>
-  </si>
-  <si>
-    <t>@{selected|token_name} würfelt völlig abgefahren
-/r ?{Vollständige Formel|1d4!-2}</t>
-  </si>
-  <si>
-    <t>Schaden-NK</t>
-  </si>
-  <si>
-    <t>/em macht Kleinholz aus @{target|token_name}
-/r 1d@{selected|Stärke}! [Stärke]+([[@{selected|Stärke|max}+0]])+?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}! [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Kopf,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Arme,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Beine,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{selected|Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
+    <t>Global-Macro-Vollautomatisch</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** feuert vollautomatisch auf @{target|token_name}
+?{Feuerrate|2,Wähle 2 beliebige Ergebnisse aus.&amp;#10;Würfel:&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung|3,Wähle 3 beliebige Ergebnisse aus.&amp;#10;Würfel:&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung|4,Wähle 4 beliebige Ergebnisse aus.&amp;#10;Würfel:&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung|5,Wähle 5 beliebige Ergebnisse aus.&amp;#10;Würfel:&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#32;[[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] - 2 [Vollautomatisch] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung}</t>
+  </si>
+  <si>
+    <t>Global-Macro-Schaden-NK</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** macht Kleinholz aus @{target|token_name}
+/r 1d@{selected|Stärke}! [Stärke]+([[@{selected|Stärke|max}+0]])+?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}! [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Kopf,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Arme,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Beine,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{selected|Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
 über @{target|token_name}'s Robustheit
 0 ist angeschlagen (wenn bereits angeschlagen dann eine Wunde), jeweils 4 ist eine Wunde</t>
   </si>
   <si>
-    <t>Schaden-FK</t>
-  </si>
-  <si>
-    <t>/em durchlöchert @{target|token_name}
-/r {Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}! [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Kopf,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Arme,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Beine,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{selected|Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
+    <t>Global-Macro-Schaden-FK</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** durchlöchert @{target|token_name}
+/r ?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}! [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Torso} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Kopf,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Kopf} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Arme,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Arme} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Beine,[[{{?{PB (Waffe)&amp;#124;0&amp;#125;+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))) + (@{target|Panzerung-Beine} - (?{PB (Waffe)&amp;#124;0&amp;#125;+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{selected|Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
 über @{target|token_name}'s Robustheit
 0 ist angeschlagen (wenn bereits angeschlagen dann eine Wunde), jeweils 4 ist eine Wunde</t>
   </si>
   <si>
+    <t>Fähigkeit</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** würfelt für eine Wild Card-Fähigkeit
+/r {1d?{Fähigkeitswert|6}! [Fähigkeit]@{selected|WildDie} [Wild Die]}k1 - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</t>
+  </si>
+  <si>
+    <t>Ungeübt</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** macht einen ungeübten Versuch
+/r {1d4! [Fähigkeit]@{selected|WildDie} [Wild Die]}k1 - 2 [Ungeübt] - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</t>
+  </si>
+  <si>
+    <t>Explodieren</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** lässt die Würfel explodieren
+/r ?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}!+(?{Modifikator|0})</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** würfelt ganz normal
+/r ?{Anzahl Würfel|1}d?{Würfeltyp (4/6/8/10/12)|6}+(?{Modifikator|0})</t>
+  </si>
+  <si>
+    <t>Speziell</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** würfelt völlig abgefahren
+/r ?{Vollständige Formel|1d4!-2}</t>
+  </si>
+  <si>
+    <t>Schaden-NK</t>
+  </si>
+  <si>
+    <t>%{selected|Global-Macro-Schaden-NK}</t>
+  </si>
+  <si>
+    <t>Schaden-FK</t>
+  </si>
+  <si>
+    <t>%{selected|Global-Macro-Schaden-FK}</t>
+  </si>
+  <si>
     <t>Doppelschuss</t>
   </si>
   <si>
-    <t>/em feuert einen Doppelschuß auf @{target|token_name}
+    <t>**@{selected|token_name}** feuert einen Doppelschuß auf @{target|token_name}
 /r {1d@{selected|Schießen}! [Schießen]@{selected|WildDie}}k1 + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung|Kurz, 0|Mittel, 2|Lang, 4} [Entfernung] + 1 [Doppelschuss] + (?{Modifikator|0}) [Modifikator]
 4 ist ein Erfolg, 8 ist eine Steigerung</t>
   </si>
@@ -339,7 +369,7 @@
     <t>Dreiersalve</t>
   </si>
   <si>
-    <t>/em feuert eine Dreiersalve auf @{target|token_name}
+    <t>**@{selected|token_name}** feuert eine Dreiersalve auf @{target|token_name}
 /r {1d@{selected|Schießen}! [Schießen]@{selected|WildDie}}k1 + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung|Kurz, 0|Mittel, 2|Lang, 4} [Entfernung] + 2 [Dreiersalve] + (?{Modifikator|0}) [Modifikator]
 4 ist ein Erfolg, 8 ist eine Steigerung</t>
   </si>
@@ -347,8 +377,23 @@
     <t>Vollautomatisch</t>
   </si>
   <si>
-    <t>/em feuert vollautomatisch auf @{target|token_name}
-?{Feuerrate|2,Wähle 2 beliebige Ergebnisse aus.&amp;#10;1. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;2. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung|3,Wähle 3 beliebige Ergebnisse aus.&amp;#10;1. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;2. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;3. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung|4,Wähle 4 beliebige Ergebnisse aus.&amp;#10;1. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;2. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;3. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung|5,Wähle 5 beliebige Ergebnisse aus.&amp;#10;1. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;2. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;3. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;5. Würfel: [[d@{selected|Schießen}! [Schießen] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;Wild Die: [[@{selected|WildDieRaw} [Wild Die] + ([[@{selected|Schießen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] - ?{Entfernung&amp;#124;Kurz&amp;#44; 0&amp;#124;Mittel&amp;#44; 2&amp;#124;Lang&amp;#44; 4&amp;#125; [Entfernung] + (?{Modifikator&amp;#124;0&amp;#125;) [Modifikator]]]&amp;#10;4 ist ein Erfolg&amp;#44; 8 ist eine Steigerung}</t>
+    <t>%{selected|Global-Macro-Vollautomatisch}</t>
+  </si>
+  <si>
+    <t>Flüstern</t>
+  </si>
+  <si>
+    <t>/w "@{target|character_name}" ?{Nachricht}</t>
+  </si>
+  <si>
+    <t>Rücksichtsloser Angriff</t>
+  </si>
+  <si>
+    <t>**@{selected|token_name}** greift @{target|token_name} rücksichtslos im Nahkampf an
+/r {1d@{selected|Kämpfen}! [Kämpfen]@{selected|WildDie}}k1 + ([[@{selected|Kämpfen|max}+0]]) - @{selected|Wunden} [Wunden] - @{selected|Erschöpfung} [Erschöpfung] - abs(@{selected|Belastungsabzug}) [Belastungsabzug] + 2 [Rücksichtslos] - @{target|Parade} [Parade] + (?{Modifikator|0}) [Modifikator]
+über @{target|token_name}'s Parade
+0 ist ein Erfolg, 4 ist eine Steigerung
+**Parade -2** bis zur nächsten Aktion</t>
   </si>
 </sst>
 </file>
@@ -772,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="E15" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A24" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,8 +864,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="str">
-        <f>IF(LEN($C2)&gt;0,"/em "&amp;$C2,"")&amp;CHAR(10)&amp;"/r {1d@{"&amp;$A2&amp;"}! ["&amp;$A2&amp;"]@{WildDie}}k1 + ([[@{"&amp;$A2&amp;"|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung]"&amp;IF(AND(LEN($B2)&gt;0,$B2&lt;&gt;0)," - abs(@{Belastungsabzug}) [Belastungsabzug]","")&amp;IF(LEN($E2)&gt;0,$E2,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($D2)&gt;0,CHAR(10)&amp;$D2,"")</f>
-        <v>/em bewegt sich flink wie eine Katze
+        <f>IF(LEN($C2)&gt;0,"**@{selected|token_name}** "&amp;$C2,"")&amp;CHAR(10)&amp;"/r {1d@{"&amp;$A2&amp;"}! ["&amp;$A2&amp;"]@{WildDie}}k1 + ([[@{"&amp;$A2&amp;"|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung]"&amp;IF(AND(LEN($B2)&gt;0,$B2&lt;&gt;0)," - abs(@{Belastungsabzug}) [Belastungsabzug]","")&amp;IF(LEN($E2)&gt;0,$E2,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($D2)&gt;0,CHAR(10)&amp;$D2,"")</f>
+        <v>**@{selected|token_name}** bewegt sich flink wie eine Katze
 /r {1d@{Geschicklichkeit}! [Geschicklichkeit]@{WildDie}}k1 + ([[@{Geschicklichkeit|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -837,8 +882,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="str">
-        <f t="shared" ref="F3:F29" si="0">IF(LEN($C3)&gt;0,"/em "&amp;$C3,"")&amp;CHAR(10)&amp;"/r {1d@{"&amp;$A3&amp;"}! ["&amp;$A3&amp;"]@{WildDie}}k1 + ([[@{"&amp;$A3&amp;"|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung]"&amp;IF(AND(LEN($B3)&gt;0,$B3&lt;&gt;0)," - abs(@{Belastungsabzug}) [Belastungsabzug]","")&amp;IF(LEN($E3)&gt;0,$E3,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($D3)&gt;0,CHAR(10)&amp;$D3,"")</f>
-        <v>/em demonstriert wie hart man sein kann
+        <f t="shared" ref="F3:F29" si="0">IF(LEN($C3)&gt;0,"**@{selected|token_name}** "&amp;$C3,"")&amp;CHAR(10)&amp;"/r {1d@{"&amp;$A3&amp;"}! ["&amp;$A3&amp;"]@{WildDie}}k1 + ([[@{"&amp;$A3&amp;"|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung]"&amp;IF(AND(LEN($B3)&gt;0,$B3&lt;&gt;0)," - abs(@{Belastungsabzug}) [Belastungsabzug]","")&amp;IF(LEN($E3)&gt;0,$E3,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($D3)&gt;0,CHAR(10)&amp;$D3,"")</f>
+        <v>**@{selected|token_name}** demonstriert wie hart man sein kann
 /r {1d@{Konstitution}! [Konstitution]@{WildDie}}k1 + ([[@{Konstitution|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -856,7 +901,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em lässt die Muskeln spielen
+        <v>**@{selected|token_name}** lässt die Muskeln spielen
 /r {1d@{Stärke}! [Stärke]@{WildDie}}k1 + ([[@{Stärke|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -874,7 +919,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em strengt die grauen Zellen an
+        <v>**@{selected|token_name}** strengt die grauen Zellen an
 /r {1d@{Verstand}! [Verstand]@{WildDie}}k1 + ([[@{Verstand|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -892,7 +937,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em zeigt innere Stärke
+        <v>**@{selected|token_name}** zeigt innere Stärke
 /r {1d@{Willenskraft}! [Willenskraft]@{WildDie}}k1 + ([[@{Willenskraft|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -908,7 +953,7 @@
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em fletscht die Zähne
+        <v>**@{selected|token_name}** fletscht die Zähne
 /r {1d@{Einschüchtern}! [Einschüchtern]@{WildDie}}k1 + ([[@{Einschüchtern|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -924,7 +969,7 @@
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em gibt Gummi
+        <v>**@{selected|token_name}** gibt Gummi
 /r {1d@{Fahren}! [Fahren]@{WildDie}}k1 + ([[@{Fahren|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -940,7 +985,7 @@
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em fordert Fortuna heraus
+        <v>**@{selected|token_name}** fordert Fortuna heraus
 /r {1d@{Glücksspiel}! [Glücksspiel]@{WildDie}}k1 + ([[@{Glücksspiel|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -962,7 +1007,7 @@
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em verarztet @{target|token_name}
+        <v>**@{selected|token_name}** verarztet @{target|token_name}
 /r {1d@{Heilen}! [Heilen]@{WildDie}}k1 + ([[@{Heilen|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - @{target|Wunden} [Patientenwunden] + (?{Modifikator|0}) [Modifikator]
 Ein Erfolg heilt eine Wunde, eine Steigerung zwei. Weitere Steigerungen haben keine Auswirkung.</v>
       </c>
@@ -979,7 +1024,7 @@
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em schleicht durch die Schatten
+        <v>**@{selected|token_name}** schleicht durch die Schatten
 /r {1d@{Heimlichkeit}! [Heimlichkeit]@{WildDie}}k1 + ([[@{Heimlichkeit|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1001,7 +1046,7 @@
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em greift @{target|token_name} im Nahkampf an
+        <v>**@{selected|token_name}** greift @{target|token_name} im Nahkampf an
 /r {1d@{Kämpfen}! [Kämpfen]@{WildDie}}k1 + ([[@{Kämpfen|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] - @{target|Parade} [Parade] + (?{Modifikator|0}) [Modifikator]
 über @{target|token_name}'s Parade
 0 ist ein Erfolg, 4 ist eine Steigerung</v>
@@ -1019,7 +1064,7 @@
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em gewinnt an Höhe
+        <v>**@{selected|token_name}** gewinnt an Höhe
 /r {1d@{Klettern}! [Klettern]@{WildDie}}k1 + ([[@{Klettern|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1035,7 +1080,7 @@
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em lässt die Triebwerke aufheulen
+        <v>**@{selected|token_name}** lässt die Triebwerke aufheulen
 /r {1d@{Luftfahrt}! [Luftfahrt]@{WildDie}}k1 + ([[@{Luftfahrt|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1051,7 +1096,7 @@
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em vertieft sich in Recherchen
+        <v>**@{selected|token_name}** vertieft sich in Recherchen
 /r {1d@{Nachforschung}! [Nachforschung]@{WildDie}}k1 + ([[@{Nachforschung|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1067,7 +1112,7 @@
       </c>
       <c r="F16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em lässt den Gegner rot sehen
+        <v>**@{selected|token_name}** lässt den Gegner rot sehen
 /r {1d@{Provozieren}! [Provozieren]@{WildDie}}k1 + ([[@{Provozieren|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1083,7 +1128,7 @@
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em gibt dem Pferd die Sporen
+        <v>**@{selected|token_name}** gibt dem Pferd die Sporen
 /r {1d@{Reiten}! [Reiten]@{WildDie}}k1 + ([[@{Reiten|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1099,7 +1144,7 @@
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em tüftelt vor sich hin
+        <v>**@{selected|token_name}** tüftelt vor sich hin
 /r {1d@{Reparieren}! [Reparieren]@{WildDie}}k1 + ([[@{Reparieren|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1121,7 +1166,7 @@
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em schießt auf @{target|token_name}
+        <v>**@{selected|token_name}** schießt auf @{target|token_name}
 /r {1d@{Schießen}! [Schießen]@{WildDie}}k1 + ([[@{Schießen|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] - ?{Entfernung|Kurz, 0|Mittel, 2|Lang, 4} [Entfernung] + (?{Modifikator|0}) [Modifikator]
 4 ist ein Erfolg, 8 ist eine Steigerung</v>
       </c>
@@ -1138,7 +1183,7 @@
       </c>
       <c r="F20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em gibt den Feinmechaniker
+        <v>**@{selected|token_name}** gibt den Feinmechaniker
 /r {1d@{Schlösser-knacken}! [Schlösser-knacken]@{WildDie}}k1 + ([[@{Schlösser-knacken|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1154,7 +1199,7 @@
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em krault durch die Fluten
+        <v>**@{selected|token_name}** krault durch die Fluten
 /r {1d@{Schwimmen}! [Schwimmen]@{WildDie}}k1 + ([[@{Schwimmen|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1170,7 +1215,7 @@
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em navigiert durch die See
+        <v>**@{selected|token_name}** navigiert durch die See
 /r {1d@{Seefahrt}! [Seefahrt]@{WildDie}}k1 + ([[@{Seefahrt|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1186,7 +1231,7 @@
       </c>
       <c r="F23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em folgt der Fährte
+        <v>**@{selected|token_name}** folgt der Fährte
 /r {1d@{Spuren-lesen}! [Spuren-lesen]@{WildDie}}k1 + ([[@{Spuren-lesen|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1202,7 +1247,7 @@
       </c>
       <c r="F24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em wird eins mit der Natur
+        <v>**@{selected|token_name}** wird eins mit der Natur
 /r {1d@{Überleben}! [Überleben]@{WildDie}}k1 + ([[@{Überleben|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1221,7 +1266,7 @@
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em redet sich um Kopf und Kragen
+        <v>**@{selected|token_name}** redet sich um Kopf und Kragen
 /r {1d@{Überreden}! [Überreden]@{WildDie}}k1 + ([[@{Überreden|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (@{Charisma}) [Charisma] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1240,7 +1285,7 @@
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em fragt sich durch die Nachbarschaft
+        <v>**@{selected|token_name}** fragt sich durch die Nachbarschaft
 /r {1d@{Umhören}! [Umhören]@{WildDie}}k1 + ([[@{Umhören|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (@{Charisma}) [Charisma] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1256,7 +1301,7 @@
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em sieht sich genau um
+        <v>**@{selected|token_name}** sieht sich genau um
 /r {1d@{Wahrnehmung}! [Wahrnehmung]@{WildDie}}k1 + ([[@{Wahrnehmung|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1278,7 +1323,7 @@
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em holt weit aus um @{target|token_name} zu treffen
+        <v>**@{selected|token_name}** holt weit aus um @{target|token_name} zu treffen
 /r {1d@{Werfen}! [Werfen]@{WildDie}}k1 + ([[@{Werfen|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] - abs(@{Belastungsabzug}) [Belastungsabzug] - ?{Entfernung|Kurz, 0|Mittel, 2|Lang, 4} [Entfernung] + (?{Modifikator|0}) [Modifikator]
 4 ist ein Erfolg, 8 ist eine Steigerung</v>
       </c>
@@ -1295,7 +1340,7 @@
       </c>
       <c r="F29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em grübelt nach über Spezifisch
+        <v>**@{selected|token_name}** grübelt nach über Spezifisch
 /r {1d@{Wissen-Spezifisch}! [Wissen-Spezifisch]@{WildDie}}k1 + ([[@{Wissen-Spezifisch|max}+0]]) - @{Wunden} [Wunden] - @{Erschöpfung} [Erschöpfung] + (?{Modifikator|0}) [Modifikator]</v>
       </c>
     </row>
@@ -1308,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF381E4-AD1B-4BF1-920F-70CBE899EEE5}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{07B2A31C-6F07-5349-98CE-C6B9A2072C9A}">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{07B2A31C-6F07-5349-98CE-C6B9A2072C9A}">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1364,9 +1409,9 @@
         <v>74</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>IF(LEN($D2)&gt;0,"/em "&amp;$D2,"")&amp;CHAR(10)&amp;"/r "&amp;IF($B2="NK","1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+","")&amp;"@{"&amp;$B2&amp;"-"&amp;$C2&amp;"} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Torso} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Kopf,[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Kopf} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Arme,[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Arme} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Beine,[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Beine} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{Robustheit} [Robustheit]"&amp;IF(LEN($F2)&gt;0,$F2,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($E2)&gt;0,CHAR(10)&amp;$E2,"")</f>
-        <v>/em macht Kleinholz aus @{target|token_name}
-/r 1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+@{NK-Unbewaffnet} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Torso} - (@{NK-Unbewaffnet|max}+0))]]|Kopf,[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Kopf} - (@{NK-Unbewaffnet|max}+0))]]|Arme,[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Arme} - (@{NK-Unbewaffnet|max}+0))]]|Beine,[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Beine} - (@{NK-Unbewaffnet|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
+        <f>IF(LEN($D2)&gt;0,"**@{selected|token_name}** "&amp;$D2,"")&amp;CHAR(10)&amp;"/r "&amp;IF($B2="NK","1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+","")&amp;"@{"&amp;$B2&amp;"-"&amp;$C2&amp;"} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Torso} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Kopf,[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Kopf} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Arme,[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Arme} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Beine,[[{{@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))) + (@{target|Panzerung-Beine} - (@{"&amp;$B2&amp;"-"&amp;$C2&amp;"|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{Robustheit} [Robustheit]"&amp;IF(LEN($F2)&gt;0,$F2,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($E2)&gt;0,CHAR(10)&amp;$E2,"")</f>
+        <v>**@{selected|token_name}** macht Kleinholz aus @{target|token_name}
+/r 1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+@{NK-Unbewaffnet} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Torso} - (@{NK-Unbewaffnet|max}+0))]]|Kopf,[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Kopf} - (@{NK-Unbewaffnet|max}+0))]]|Arme,[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Arme} - (@{NK-Unbewaffnet|max}+0))]]|Beine,[[{{@{NK-Unbewaffnet|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{NK-Unbewaffnet|max}+0))) + (@{target|Panzerung-Beine} - (@{NK-Unbewaffnet|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
 über @{target|token_name}'s Robustheit
 0 ist angeschlagen (wenn bereits angeschlagen dann eine Wunde), jeweils 4 ist eine Wunde</v>
       </c>
@@ -1390,9 +1435,9 @@
         <v>74</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G4" si="0">IF(LEN($D3)&gt;0,"/em "&amp;$D3,"")&amp;CHAR(10)&amp;"/r "&amp;IF($B3="NK","1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+","")&amp;"@{"&amp;$B3&amp;"-"&amp;$C3&amp;"} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Torso} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Kopf,[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Kopf} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Arme,[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Arme} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Beine,[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Beine} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{Robustheit} [Robustheit]"&amp;IF(LEN($F3)&gt;0,$F3,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($E3)&gt;0,CHAR(10)&amp;$E3,"")</f>
-        <v>/em macht Kleinholz aus @{target|token_name}
-/r 1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+@{NK-Waffe1} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Torso} - (@{NK-Waffe1|max}+0))]]|Kopf,[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Kopf} - (@{NK-Waffe1|max}+0))]]|Arme,[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Arme} - (@{NK-Waffe1|max}+0))]]|Beine,[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Beine} - (@{NK-Waffe1|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
+        <f t="shared" ref="G3:G4" si="0">IF(LEN($D3)&gt;0,"**@{selected|token_name}** "&amp;$D3,"")&amp;CHAR(10)&amp;"/r "&amp;IF($B3="NK","1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+","")&amp;"@{"&amp;$B3&amp;"-"&amp;$C3&amp;"} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Torso} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Kopf,[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Kopf} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Arme,[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Arme} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Beine,[[{{@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))) + (@{target|Panzerung-Beine} - (@{"&amp;$B3&amp;"-"&amp;$C3&amp;"|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{Robustheit} [Robustheit]"&amp;IF(LEN($F3)&gt;0,$F3,"")&amp;" + (?{Modifikator|0}) [Modifikator]"&amp;IF(LEN($E3)&gt;0,CHAR(10)&amp;$E3,"")</f>
+        <v>**@{selected|token_name}** macht Kleinholz aus @{target|token_name}
+/r 1d@{Stärke}! [Stärke]+([[@{Stärke|max}+0]])+@{NK-Waffe1} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Torso} - (@{NK-Waffe1|max}+0))]]|Kopf,[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Kopf} - (@{NK-Waffe1|max}+0))]]|Arme,[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Arme} - (@{NK-Waffe1|max}+0))]]|Beine,[[{{@{NK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{NK-Waffe1|max}+0))) + (@{target|Panzerung-Beine} - (@{NK-Waffe1|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
 über @{target|token_name}'s Robustheit
 0 ist angeschlagen (wenn bereits angeschlagen dann eine Wunde), jeweils 4 ist eine Wunde</v>
       </c>
@@ -1417,8 +1462,8 @@
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>/em durchlöchert @{target|token_name}
-/r @{FK-Waffe1} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Angesagtes Ziel/Panzerung|Torso (Standard),[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Torso} - (@{FK-Waffe1|max}+0))]]|Kopf,[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Kopf} - (@{FK-Waffe1|max}+0))]]|Arme,[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Arme} - (@{FK-Waffe1|max}+0))]]|Beine,[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Beine} - (@{FK-Waffe1|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB + Angesagtes Ziel] - @{Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
+        <v>**@{selected|token_name}** durchlöchert @{target|token_name}
+/r @{FK-Waffe1} [Schaden] + (?{Steigerung (Angriff)|Nein,0 [Steigerung]|Ja,1d6! [Steigerung]}) - (?{Körperzone (Panzerung)|Torso (Standard),[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Torso}&amp;#125; * (0 - (@{target|Panzerung-Torso} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Torso} - (@{FK-Waffe1|max}+0))]]|Kopf,[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Kopf}&amp;#125; * (0 - (@{target|Panzerung-Kopf} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Kopf} - (@{FK-Waffe1|max}+0))]]|Arme,[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Arme}&amp;#125; * (0 - (@{target|Panzerung-Arme} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Arme} - (@{FK-Waffe1|max}+0))]]|Beine,[[{{@{FK-Waffe1|max}+0&amp;#44;-1&amp;#125;&gt;@{target|Panzerung-Beine}&amp;#125; * (0 - (@{target|Panzerung-Beine} - (@{FK-Waffe1|max}+0))) + (@{target|Panzerung-Beine} - (@{FK-Waffe1|max}+0))]]|Speziell,?{Panzerung&amp;#124;0&amp;#125;}) [Panzerung - PB] - @{Robustheit} [Robustheit] + (?{Modifikator|0}) [Modifikator]
 über @{target|token_name}'s Robustheit
 0 ist angeschlagen (wenn bereits angeschlagen dann eine Wunde), jeweils 4 ist eine Wunde</v>
       </c>
@@ -1430,10 +1475,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180809F3-FD23-4EEB-8453-0C71FE001D3A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{59378EA2-204F-599A-BA04-5F864DCA79EF}">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="173.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="70.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="78.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="112.5">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087CF310-2BE0-49FE-85C1-F7398DA18E26}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{3CC94F64-49D4-586F-9ADF-5C4D00536648}">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1450,119 +1554,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087CF310-2BE0-49FE-85C1-F7398DA18E26}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0" xr3:uid="{3CC94F64-49D4-586F-9ADF-5C4D00536648}">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="91" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" ht="33.75">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="33.75">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22.5">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="22.5">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="213.75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="202.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="67.5">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="67.5">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="105" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
